--- a/99_data-sets-raw/Eurostat/eurostat-domestic-percentage.xlsx
+++ b/99_data-sets-raw/Eurostat/eurostat-domestic-percentage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisapramann/R/IDS_Hertie_2021/97_Data_Science_Project/tourism-trends-covid/99_data-sets-raw/Eurostat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC1785E2-DF0A-FE4F-98E3-DF332E4F5627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7177D407-CF41-0E4F-9539-B5AC0C4BFF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15720" xr2:uid="{AE936A76-977B-5F40-822F-7C3AE4C56198}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
   <si>
     <t>2020-01</t>
   </si>
@@ -633,8 +633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AEE59B-3A8F-CF41-B163-9E04E49CC740}">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,10 +773,10 @@
         <v>-7.07</v>
       </c>
       <c r="U2" s="3">
-        <v>-4.01</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>14</v>
+        <v>-4.1900000000000004</v>
+      </c>
+      <c r="V2" s="3">
+        <v>15.38</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -1250,8 +1251,8 @@
       <c r="U9" s="3">
         <v>10.94</v>
       </c>
-      <c r="V9" s="4" t="s">
-        <v>14</v>
+      <c r="V9" s="3">
+        <v>6.63</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -1318,8 +1319,8 @@
       <c r="U10" s="5">
         <v>21.38</v>
       </c>
-      <c r="V10" s="6" t="s">
-        <v>14</v>
+      <c r="V10" s="5">
+        <v>29.71</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -1454,8 +1455,8 @@
       <c r="U12" s="5">
         <v>-1.05</v>
       </c>
-      <c r="V12" s="6" t="s">
-        <v>14</v>
+      <c r="V12" s="5">
+        <v>-8.94</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -1724,10 +1725,10 @@
         <v>-2.2599999999999998</v>
       </c>
       <c r="U16" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="V16" s="6" t="s">
-        <v>14</v>
+        <v>-0.38</v>
+      </c>
+      <c r="V16" s="5">
+        <v>10.74</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
@@ -1856,13 +1857,13 @@
       <c r="S18" s="5">
         <v>0.49</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="3">
         <v>16.07</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="3">
         <v>13.12</v>
       </c>
-      <c r="V18" s="5">
+      <c r="V18" s="3">
         <v>0.8</v>
       </c>
     </row>
@@ -1924,14 +1925,14 @@
       <c r="S19" s="3">
         <v>4.6399999999999997</v>
       </c>
-      <c r="T19" s="3">
-        <v>24.21</v>
-      </c>
-      <c r="U19" s="3">
-        <v>18.760000000000002</v>
-      </c>
-      <c r="V19" s="3">
-        <v>3.56</v>
+      <c r="T19" s="5">
+        <v>24.59</v>
+      </c>
+      <c r="U19" s="5">
+        <v>13.28</v>
+      </c>
+      <c r="V19" s="5">
+        <v>1.92</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
@@ -1992,14 +1993,14 @@
       <c r="S20" s="5">
         <v>-42.71</v>
       </c>
-      <c r="T20" s="5">
+      <c r="T20" s="3">
         <v>-16.86</v>
       </c>
-      <c r="U20" s="5">
+      <c r="U20" s="3">
         <v>-14.89</v>
       </c>
-      <c r="V20" s="5">
-        <v>-32.97</v>
+      <c r="V20" s="3">
+        <v>-32.58</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
@@ -2060,13 +2061,13 @@
       <c r="S21" s="3">
         <v>-35.159999999999997</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="5">
         <v>-14.09</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="5">
         <v>-1.1599999999999999</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="5">
         <v>143.11000000000001</v>
       </c>
     </row>
@@ -2128,14 +2129,14 @@
       <c r="S22" s="5">
         <v>88.45</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T22" s="3">
         <v>129.77000000000001</v>
       </c>
-      <c r="U22" s="5">
-        <v>97.18</v>
-      </c>
-      <c r="V22" s="6" t="s">
-        <v>14</v>
+      <c r="U22" s="3">
+        <v>97.16</v>
+      </c>
+      <c r="V22" s="3">
+        <v>110.22</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
@@ -2196,14 +2197,14 @@
       <c r="S23" s="3">
         <v>8.49</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="5">
         <v>41.86</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23" s="5">
         <v>37.94</v>
       </c>
-      <c r="V23" s="4" t="s">
-        <v>14</v>
+      <c r="V23" s="5">
+        <v>29.57</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
@@ -2264,13 +2265,13 @@
       <c r="S24" s="5">
         <v>-10.01</v>
       </c>
-      <c r="T24" s="5">
+      <c r="T24" s="3">
         <v>12.09</v>
       </c>
-      <c r="U24" s="5">
+      <c r="U24" s="3">
         <v>14.27</v>
       </c>
-      <c r="V24" s="5">
+      <c r="V24" s="3">
         <v>14.34</v>
       </c>
     </row>
@@ -2332,13 +2333,13 @@
       <c r="S25" s="3">
         <v>-20.45</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U25" s="5">
         <v>2.12</v>
       </c>
-      <c r="V25" s="3">
+      <c r="V25" s="5">
         <v>3.16</v>
       </c>
     </row>
@@ -2400,13 +2401,13 @@
       <c r="S26" s="5">
         <v>-10.7</v>
       </c>
-      <c r="T26" s="5">
+      <c r="T26" s="3">
         <v>-2.46</v>
       </c>
-      <c r="U26" s="5">
+      <c r="U26" s="3">
         <v>6.94</v>
       </c>
-      <c r="V26" s="5">
+      <c r="V26" s="3">
         <v>10.25</v>
       </c>
     </row>
@@ -2468,14 +2469,14 @@
       <c r="S27" s="3">
         <v>-30.96</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27" s="5">
         <v>-10.49</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="5">
         <v>-6.26</v>
       </c>
-      <c r="V27" s="4" t="s">
-        <v>14</v>
+      <c r="V27" s="5">
+        <v>-15.9</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
@@ -2536,14 +2537,14 @@
       <c r="S28" s="5">
         <v>64.13</v>
       </c>
-      <c r="T28" s="5">
+      <c r="T28" s="3">
         <v>124.07</v>
       </c>
-      <c r="U28" s="5">
+      <c r="U28" s="3">
         <v>125.31</v>
       </c>
-      <c r="V28" s="6" t="s">
-        <v>14</v>
+      <c r="V28" s="3">
+        <v>154.94999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
@@ -2604,14 +2605,14 @@
       <c r="S29" s="3">
         <v>-30.09</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="5">
         <v>1.45</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="5">
         <v>3.95</v>
       </c>
-      <c r="V29" s="4" t="s">
-        <v>14</v>
+      <c r="V29" s="5">
+        <v>-5.33</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
@@ -2672,13 +2673,13 @@
       <c r="S30" s="5">
         <v>-2.85</v>
       </c>
-      <c r="T30" s="5">
+      <c r="T30" s="3">
         <v>27.39</v>
       </c>
-      <c r="U30" s="5">
+      <c r="U30" s="3">
         <v>10.39</v>
       </c>
-      <c r="V30" s="5">
+      <c r="V30" s="3">
         <v>6.32</v>
       </c>
     </row>
@@ -2740,13 +2741,13 @@
       <c r="S31" s="3">
         <v>-15.11</v>
       </c>
-      <c r="T31" s="3">
+      <c r="T31" s="5">
         <v>7.35</v>
       </c>
-      <c r="U31" s="3">
+      <c r="U31" s="5">
         <v>8.81</v>
       </c>
-      <c r="V31" s="3">
+      <c r="V31" s="5">
         <v>-0.7</v>
       </c>
     </row>
@@ -2808,13 +2809,13 @@
       <c r="S32" s="5">
         <v>58.3</v>
       </c>
-      <c r="T32" s="5">
+      <c r="T32" s="3">
         <v>119.6</v>
       </c>
-      <c r="U32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="V32" s="6" t="s">
+      <c r="U32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V32" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2876,14 +2877,14 @@
       <c r="S33" s="3">
         <v>3.34</v>
       </c>
-      <c r="T33" s="3">
+      <c r="T33" s="5">
         <v>-14.78</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U33" s="5">
         <v>-2.2599999999999998</v>
       </c>
-      <c r="V33" s="4" t="s">
-        <v>14</v>
+      <c r="V33" s="5">
+        <v>50.31</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
@@ -2944,14 +2945,14 @@
       <c r="S34" s="5">
         <v>-3.38</v>
       </c>
-      <c r="T34" s="5">
+      <c r="T34" s="3">
         <v>43.05</v>
       </c>
-      <c r="U34" s="5">
+      <c r="U34" s="3">
         <v>19.09</v>
       </c>
-      <c r="V34" s="6" t="s">
-        <v>14</v>
+      <c r="V34" s="3">
+        <v>7.91</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
@@ -3060,6 +3061,33 @@
         <v>14</v>
       </c>
       <c r="M36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="V36" s="6" t="s">
         <v>14</v>
       </c>
     </row>
